--- a/DATA/C-N.xlsx
+++ b/DATA/C-N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roell\OneDrive\Bureaublad\Github\Coastclim Spatial\Spatial-23-CoastClim\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f8c170b5923d91/Bureaublad/Github/Coastclim Spatial/Spatial-23-CoastClim/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD32BA9-B408-4452-98C9-A5F100D6E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CDD32BA9-B408-4452-98C9-A5F100D6E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1738565F-0FC9-4E2B-84DE-23875884D7CC}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{76F5EA2E-47A5-4122-8B0F-A091992A6C1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76F5EA2E-47A5-4122-8B0F-A091992A6C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL CN" sheetId="1" r:id="rId1"/>
@@ -3716,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56863C3-93C9-42B6-878D-C24BE69AB489}">
   <dimension ref="A1:N763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O725" sqref="O725"/>
+    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E719" sqref="E719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27067,11 +27067,11 @@
         <v>-17.216637661809401</v>
       </c>
       <c r="L543">
-        <f t="shared" ref="L542:L579" si="18">H543/G543</f>
+        <f t="shared" ref="L543:L579" si="18">H543/G543</f>
         <v>21.982085370316366</v>
       </c>
       <c r="M543">
-        <f t="shared" ref="M542:M579" si="19">J543/G543</f>
+        <f t="shared" ref="M543:M579" si="19">J543/G543</f>
         <v>322.58203251676713</v>
       </c>
     </row>
@@ -28658,11 +28658,11 @@
         <v>-17.7957824033398</v>
       </c>
       <c r="L580">
-        <f t="shared" ref="L580:L613" si="20">H580/G580</f>
+        <f t="shared" ref="L580:L612" si="20">H580/G580</f>
         <v>20.130963459277691</v>
       </c>
       <c r="M580">
-        <f t="shared" ref="M580:M613" si="21">J580/G580</f>
+        <f t="shared" ref="M580:M612" si="21">J580/G580</f>
         <v>366.07626326559688</v>
       </c>
     </row>
@@ -30120,7 +30120,7 @@
         <v>-16.892697341283402</v>
       </c>
       <c r="L614">
-        <f t="shared" ref="L614:L650" si="22">H614/G614</f>
+        <f t="shared" ref="L614:L649" si="22">H614/G614</f>
         <v>8.7469586497645189</v>
       </c>
       <c r="M614">
@@ -34571,7 +34571,7 @@
         <v>2</v>
       </c>
       <c r="E718" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F718" t="s">
         <v>1058</v>

--- a/DATA/C-N.xlsx
+++ b/DATA/C-N.xlsx
@@ -3395,6 +3395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3716,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56863C3-93C9-42B6-878D-C24BE69AB489}">
   <dimension ref="A1:N763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A717" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E719" sqref="E719"/>
+    <sheetView tabSelected="1" topLeftCell="A709" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E709" sqref="E709"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATA/C-N.xlsx
+++ b/DATA/C-N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f8c170b5923d91/Bureaublad/Github/Coastclim Spatial/Spatial-23-CoastClim/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CDD32BA9-B408-4452-98C9-A5F100D6E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1738565F-0FC9-4E2B-84DE-23875884D7CC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CDD32BA9-B408-4452-98C9-A5F100D6E79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761B8470-B5CB-452D-9D33-1EFBD27D1FFB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76F5EA2E-47A5-4122-8B0F-A091992A6C1C}"/>
   </bookViews>
@@ -3395,10 +3395,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3720,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56863C3-93C9-42B6-878D-C24BE69AB489}">
   <dimension ref="A1:N763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E709" sqref="E709"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K225" sqref="K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
